--- a/9-groupby-function/groupby-finish.xlsx
+++ b/9-groupby-function/groupby-finish.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-dynamic-array-functions\9-groupby-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961DF4D-1C45-42F8-9D3C-FD4C51CF4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D4B0A3-451B-4955-A8B6-5C8C04A73D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -7388,7 +7388,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB64D1E-F04A-402C-AE9D-F9529E802097}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB64D1E-F04A-402C-AE9D-F9529E802097}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C1:D5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -26854,9 +26854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4673539-6FF9-4154-86F9-0E6DB3FFFE71}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
